--- a/master/PostgresSQL.xlsx
+++ b/master/PostgresSQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\PyroSQL\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA870867-3E03-4232-B99F-B238AB44EDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B78B74-8AAE-4E05-8238-F04785BBB50A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{8C0F7D23-A81B-4112-AC29-C3B468AE1391}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{8C0F7D23-A81B-4112-AC29-C3B468AE1391}"/>
   </bookViews>
   <sheets>
     <sheet name="Columns" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Convert" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="353">
   <si>
     <t>Name</t>
   </si>
@@ -2558,6 +2559,69 @@
   </si>
   <si>
     <t>DATETIME2(7)</t>
+  </si>
+  <si>
+    <t>TechnologyNameFrom</t>
+  </si>
+  <si>
+    <t>DataTypeNameFrom</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>GEOMETRY</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>PSQL</t>
+  </si>
+  <si>
+    <t>MSSQL</t>
+  </si>
+  <si>
+    <t>NVARCHAR</t>
   </si>
 </sst>
 </file>
@@ -3389,7 +3453,7 @@
         <v>column_default NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -3408,7 +3472,7 @@
         <v>is_nullable NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="68.400000000000006">
+    <row r="9" spans="1:5" ht="40.799999999999997">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -3427,7 +3491,7 @@
         <v>data_type NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
@@ -3446,7 +3510,7 @@
         <v>character_maximum_length INT NULL,</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.200000000000003">
+    <row r="11" spans="1:5" ht="27">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -3465,7 +3529,7 @@
         <v>character_octet_length INT NULL,</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="54">
+    <row r="12" spans="1:5" ht="27.6">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -3484,7 +3548,7 @@
         <v>numeric_precision INT NULL,</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="40.799999999999997">
+    <row r="13" spans="1:5" ht="27">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -3503,7 +3567,7 @@
         <v>numeric_precision_radix INT NULL,</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="67.2">
+    <row r="14" spans="1:5" ht="27.6">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -3522,7 +3586,7 @@
         <v>numeric_scale INT NULL,</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="53.4">
+    <row r="15" spans="1:5" ht="27">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -3541,7 +3605,7 @@
         <v>datetime_precision INT NULL,</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="54">
+    <row r="16" spans="1:5" ht="27">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -3560,7 +3624,7 @@
         <v>interval_type NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
@@ -3636,7 +3700,7 @@
         <v>character_set_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="26.4">
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -3655,7 +3719,7 @@
         <v>collation_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="26.4">
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
@@ -3674,7 +3738,7 @@
         <v>collation_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="26.4">
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -3693,7 +3757,7 @@
         <v>collation_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26.4">
+    <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
         <v>49</v>
       </c>
@@ -3712,7 +3776,7 @@
         <v>domain_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="26.4">
+    <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -3750,7 +3814,7 @@
         <v>domain_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="26.4">
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>55</v>
       </c>
@@ -3769,7 +3833,7 @@
         <v>udt_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.4">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
@@ -3883,7 +3947,7 @@
         <v>maximum_cardinality INT NULL,</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="52.8">
+    <row r="34" spans="1:5" ht="26.4">
       <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
@@ -4092,7 +4156,7 @@
         <v>generation_expression NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="27.6" thickBot="1">
+    <row r="45" spans="1:5" ht="15" thickBot="1">
       <c r="A45" s="9" t="s">
         <v>78</v>
       </c>
@@ -4121,8 +4185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6EA48E-457C-4CEA-BD03-7AB6BD1D8B10}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E47" sqref="E1:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4326,7 +4390,7 @@
         <v>106</v>
       </c>
       <c r="E11" t="str">
-        <f>A11</f>
+        <f t="shared" ref="E11:E23" si="1">A11</f>
         <v>cidr</v>
       </c>
     </row>
@@ -4343,7 +4407,7 @@
         <v>108</v>
       </c>
       <c r="E12" t="str">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v>circle</v>
       </c>
     </row>
@@ -4360,7 +4424,7 @@
         <v>110</v>
       </c>
       <c r="E13" t="str">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>date</v>
       </c>
     </row>
@@ -4379,7 +4443,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="str">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>double precision</v>
       </c>
     </row>
@@ -4396,7 +4460,7 @@
         <v>115</v>
       </c>
       <c r="E15" t="str">
-        <f>A15</f>
+        <f t="shared" si="1"/>
         <v>inet</v>
       </c>
     </row>
@@ -4415,7 +4479,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="str">
-        <f>A16</f>
+        <f t="shared" si="1"/>
         <v>integer</v>
       </c>
     </row>
@@ -4432,7 +4496,7 @@
         <v>120</v>
       </c>
       <c r="E17" t="str">
-        <f>A17</f>
+        <f t="shared" si="1"/>
         <v>interval [ fields ] [ (p) ]</v>
       </c>
     </row>
@@ -4449,7 +4513,7 @@
         <v>122</v>
       </c>
       <c r="E18" t="str">
-        <f>A18</f>
+        <f t="shared" si="1"/>
         <v>json</v>
       </c>
     </row>
@@ -4466,7 +4530,7 @@
         <v>124</v>
       </c>
       <c r="E19" t="str">
-        <f>A19</f>
+        <f t="shared" si="1"/>
         <v>jsonb</v>
       </c>
     </row>
@@ -4483,7 +4547,7 @@
         <v>126</v>
       </c>
       <c r="E20" t="str">
-        <f>A20</f>
+        <f t="shared" si="1"/>
         <v>line</v>
       </c>
     </row>
@@ -4500,7 +4564,7 @@
         <v>128</v>
       </c>
       <c r="E21" t="str">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>lseg</v>
       </c>
     </row>
@@ -4517,7 +4581,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="str">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>macaddr</v>
       </c>
     </row>
@@ -4534,7 +4598,7 @@
         <v>132</v>
       </c>
       <c r="E23" t="str">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>money</v>
       </c>
     </row>
@@ -4569,7 +4633,7 @@
         <v>137</v>
       </c>
       <c r="E25" t="str">
-        <f>A25</f>
+        <f t="shared" ref="E25:E33" si="2">A25</f>
         <v>path</v>
       </c>
     </row>
@@ -4586,7 +4650,7 @@
         <v>139</v>
       </c>
       <c r="E26" t="str">
-        <f>A26</f>
+        <f t="shared" si="2"/>
         <v>pg_lsn</v>
       </c>
     </row>
@@ -4603,7 +4667,7 @@
         <v>141</v>
       </c>
       <c r="E27" t="str">
-        <f>A27</f>
+        <f t="shared" si="2"/>
         <v>point</v>
       </c>
     </row>
@@ -4620,7 +4684,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="str">
-        <f>A28</f>
+        <f t="shared" si="2"/>
         <v>polygon</v>
       </c>
     </row>
@@ -4639,7 +4703,7 @@
         <v>146</v>
       </c>
       <c r="E29" t="str">
-        <f>A29</f>
+        <f t="shared" si="2"/>
         <v>real</v>
       </c>
     </row>
@@ -4658,7 +4722,7 @@
         <v>149</v>
       </c>
       <c r="E30" t="str">
-        <f>A30</f>
+        <f t="shared" si="2"/>
         <v>smallint</v>
       </c>
     </row>
@@ -4677,7 +4741,7 @@
         <v>152</v>
       </c>
       <c r="E31" t="str">
-        <f>A31</f>
+        <f t="shared" si="2"/>
         <v>smallserial</v>
       </c>
     </row>
@@ -4696,7 +4760,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="str">
-        <f>A32</f>
+        <f t="shared" si="2"/>
         <v>serial</v>
       </c>
     </row>
@@ -4713,7 +4777,7 @@
         <v>104</v>
       </c>
       <c r="E33" t="str">
-        <f>A33</f>
+        <f t="shared" si="2"/>
         <v>text</v>
       </c>
     </row>
@@ -5144,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.6">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -5163,7 +5227,7 @@
         <v>table_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.6">
+    <row r="3" spans="1:5" ht="26.4">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -5182,7 +5246,7 @@
         <v>table_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -5201,7 +5265,7 @@
         <v>table_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.4">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -5220,7 +5284,7 @@
         <v>column_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.4">
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>197</v>
       </c>
@@ -6209,7 +6273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -6266,7 +6330,7 @@
         <v>table_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.4">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>237</v>
       </c>
@@ -6304,7 +6368,7 @@
         <v>check_option NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
@@ -6342,7 +6406,7 @@
         <v>is_insertable_into NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27.6">
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>243</v>
       </c>
@@ -6361,7 +6425,7 @@
         <v>is_trigger_updatable NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27.6">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>245</v>
       </c>
@@ -6380,7 +6444,7 @@
         <v>is_trigger_deletable NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.2" thickBot="1">
+    <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>247</v>
       </c>
@@ -6408,7 +6472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6956012A-4BDE-485F-A222-AAD769E2708D}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E83" sqref="E2:E83"/>
     </sheetView>
   </sheetViews>
@@ -6425,7 +6489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="145.19999999999999">
+    <row r="2" spans="1:5" ht="132">
       <c r="A2" s="6" t="s">
         <v>249</v>
       </c>
@@ -6482,7 +6546,7 @@
         <v>specific_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="145.19999999999999">
+    <row r="5" spans="1:5" ht="132">
       <c r="A5" s="6" t="s">
         <v>255</v>
       </c>
@@ -6520,7 +6584,7 @@
         <v>routine_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="132">
+    <row r="7" spans="1:5" ht="118.8">
       <c r="A7" s="6" t="s">
         <v>257</v>
       </c>
@@ -6539,7 +6603,7 @@
         <v>routine_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="132.6">
+    <row r="8" spans="1:5" ht="119.4">
       <c r="A8" s="6" t="s">
         <v>259</v>
       </c>
@@ -6558,7 +6622,7 @@
         <v>routine_type NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="92.4">
+    <row r="9" spans="1:5" ht="79.2">
       <c r="A9" s="6" t="s">
         <v>261</v>
       </c>
@@ -6577,7 +6641,7 @@
         <v>module_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="92.4">
+    <row r="10" spans="1:5" ht="79.2">
       <c r="A10" s="6" t="s">
         <v>262</v>
       </c>
@@ -6596,7 +6660,7 @@
         <v>module_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="92.4">
+    <row r="11" spans="1:5" ht="79.2">
       <c r="A11" s="6" t="s">
         <v>263</v>
       </c>
@@ -6615,7 +6679,7 @@
         <v>module_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="92.4">
+    <row r="12" spans="1:5" ht="79.2">
       <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
@@ -6634,7 +6698,7 @@
         <v>udt_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="92.4">
+    <row r="13" spans="1:5" ht="79.2">
       <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
@@ -6653,7 +6717,7 @@
         <v>udt_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="92.4">
+    <row r="14" spans="1:5" ht="79.2">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -6672,7 +6736,7 @@
         <v>udt_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.6">
+    <row r="15" spans="1:5" ht="387">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -6691,7 +6755,7 @@
         <v>data_type NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="171.6">
+    <row r="16" spans="1:5" ht="132">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -6710,7 +6774,7 @@
         <v>character_maximum_length INT NULL,</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="171.6">
+    <row r="17" spans="1:5" ht="132">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -6729,7 +6793,7 @@
         <v>character_octet_length INT NULL,</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="92.4">
+    <row r="18" spans="1:5" ht="79.2">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -6748,7 +6812,7 @@
         <v>character_set_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="92.4">
+    <row r="19" spans="1:5" ht="79.2">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -6767,7 +6831,7 @@
         <v>character_set_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="92.4">
+    <row r="20" spans="1:5" ht="79.2">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -6786,7 +6850,7 @@
         <v>character_set_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="171.6">
+    <row r="21" spans="1:5" ht="132">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -6805,7 +6869,7 @@
         <v>collation_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="171.6">
+    <row r="22" spans="1:5" ht="132">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
@@ -6824,7 +6888,7 @@
         <v>collation_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="171.6">
+    <row r="23" spans="1:5" ht="132">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -6843,7 +6907,7 @@
         <v>collation_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="171.6">
+    <row r="24" spans="1:5" ht="132">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -6862,7 +6926,7 @@
         <v>numeric_precision INT NULL,</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="171.6">
+    <row r="25" spans="1:5" ht="132">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -6881,7 +6945,7 @@
         <v>numeric_precision_radix INT NULL,</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="171.6">
+    <row r="26" spans="1:5" ht="132">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -6900,7 +6964,7 @@
         <v>numeric_scale INT NULL,</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="171.6">
+    <row r="27" spans="1:5" ht="132">
       <c r="A27" s="6" t="s">
         <v>33</v>
       </c>
@@ -6919,7 +6983,7 @@
         <v>datetime_precision INT NULL,</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="171.6">
+    <row r="28" spans="1:5" ht="132">
       <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
@@ -6938,7 +7002,7 @@
         <v>interval_type NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="171.6">
+    <row r="29" spans="1:5" ht="132">
       <c r="A29" s="6" t="s">
         <v>37</v>
       </c>
@@ -6957,7 +7021,7 @@
         <v>interval_precision INT NULL,</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="224.4">
+    <row r="30" spans="1:5" ht="171.6">
       <c r="A30" s="6" t="s">
         <v>266</v>
       </c>
@@ -6976,7 +7040,7 @@
         <v>type_udt_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="158.4">
+    <row r="31" spans="1:5" ht="132">
       <c r="A31" s="6" t="s">
         <v>268</v>
       </c>
@@ -6995,7 +7059,7 @@
         <v>type_udt_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="92.4">
+    <row r="32" spans="1:5" ht="66">
       <c r="A32" s="6" t="s">
         <v>270</v>
       </c>
@@ -7014,7 +7078,7 @@
         <v>type_udt_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="92.4">
+    <row r="33" spans="1:5" ht="79.2">
       <c r="A33" s="6" t="s">
         <v>61</v>
       </c>
@@ -7033,7 +7097,7 @@
         <v>scope_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="92.4">
+    <row r="34" spans="1:5" ht="79.2">
       <c r="A34" s="6" t="s">
         <v>62</v>
       </c>
@@ -7052,7 +7116,7 @@
         <v>scope_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="92.4">
+    <row r="35" spans="1:5" ht="79.2">
       <c r="A35" s="6" t="s">
         <v>63</v>
       </c>
@@ -7071,7 +7135,7 @@
         <v>scope_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="184.8">
+    <row r="36" spans="1:5" ht="158.4">
       <c r="A36" s="6" t="s">
         <v>64</v>
       </c>
@@ -7109,7 +7173,7 @@
         <v>dtd_identifier SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="121.2">
+    <row r="38" spans="1:5" ht="94.2">
       <c r="A38" s="6" t="s">
         <v>273</v>
       </c>
@@ -7147,7 +7211,7 @@
         <v>routine_definition NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="291.60000000000002">
+    <row r="40" spans="1:5" ht="278.39999999999998">
       <c r="A40" s="6" t="s">
         <v>277</v>
       </c>
@@ -7166,7 +7230,7 @@
         <v>external_name NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="92.4">
+    <row r="41" spans="1:5" ht="79.2">
       <c r="A41" s="6" t="s">
         <v>279</v>
       </c>
@@ -7204,7 +7268,7 @@
         <v>parameter_style NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="371.4">
+    <row r="43" spans="1:5" ht="331.2">
       <c r="A43" s="6" t="s">
         <v>283</v>
       </c>
@@ -7223,7 +7287,7 @@
         <v>is_deterministic NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="225">
+    <row r="44" spans="1:5" ht="186">
       <c r="A44" s="6" t="s">
         <v>285</v>
       </c>
@@ -7242,7 +7306,7 @@
         <v>sql_data_access NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="186.6">
+    <row r="45" spans="1:5" ht="146.4">
       <c r="A45" s="6" t="s">
         <v>287</v>
       </c>
@@ -7261,7 +7325,7 @@
         <v>is_null_call NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="92.4">
+    <row r="46" spans="1:5" ht="79.2">
       <c r="A46" s="6" t="s">
         <v>289</v>
       </c>
@@ -7280,7 +7344,7 @@
         <v>sql_path NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="199.2">
+    <row r="47" spans="1:5" ht="186">
       <c r="A47" s="6" t="s">
         <v>290</v>
       </c>
@@ -7299,7 +7363,7 @@
         <v>schema_level_routine NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="92.4">
+    <row r="48" spans="1:5" ht="79.2">
       <c r="A48" s="6" t="s">
         <v>292</v>
       </c>
@@ -7318,7 +7382,7 @@
         <v>max_dynamic_result_sets INT NULL,</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="92.4">
+    <row r="49" spans="1:5" ht="79.2">
       <c r="A49" s="6" t="s">
         <v>293</v>
       </c>
@@ -7337,7 +7401,7 @@
         <v>is_user_defined_cast NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="92.4">
+    <row r="50" spans="1:5" ht="79.2">
       <c r="A50" s="6" t="s">
         <v>294</v>
       </c>
@@ -7356,7 +7420,7 @@
         <v>is_implicitly_invocable NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="292.8">
+    <row r="51" spans="1:5" ht="266.39999999999998">
       <c r="A51" s="6" t="s">
         <v>295</v>
       </c>
@@ -7375,7 +7439,7 @@
         <v>security_type NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="92.4">
+    <row r="52" spans="1:5" ht="79.2">
       <c r="A52" s="6" t="s">
         <v>297</v>
       </c>
@@ -7394,7 +7458,7 @@
         <v>to_sql_specific_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="92.4">
+    <row r="53" spans="1:5" ht="79.2">
       <c r="A53" s="6" t="s">
         <v>298</v>
       </c>
@@ -7413,7 +7477,7 @@
         <v>to_sql_specific_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="92.4">
+    <row r="54" spans="1:5" ht="79.2">
       <c r="A54" s="6" t="s">
         <v>299</v>
       </c>
@@ -7432,7 +7496,7 @@
         <v>to_sql_specific_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="92.4">
+    <row r="55" spans="1:5" ht="79.2">
       <c r="A55" s="6" t="s">
         <v>300</v>
       </c>
@@ -7451,7 +7515,7 @@
         <v>as_locator NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="92.4">
+    <row r="56" spans="1:5" ht="79.2">
       <c r="A56" s="6" t="s">
         <v>301</v>
       </c>
@@ -7470,7 +7534,7 @@
         <v>created DATETIME2(7) NULL,</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="92.4">
+    <row r="57" spans="1:5" ht="79.2">
       <c r="A57" s="6" t="s">
         <v>303</v>
       </c>
@@ -7489,7 +7553,7 @@
         <v>last_altered DATETIME2(7) NULL,</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="92.4">
+    <row r="58" spans="1:5" ht="79.2">
       <c r="A58" s="6" t="s">
         <v>304</v>
       </c>
@@ -7508,7 +7572,7 @@
         <v>new_savepoint_level NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="160.19999999999999">
+    <row r="59" spans="1:5" ht="147">
       <c r="A59" s="6" t="s">
         <v>305</v>
       </c>
@@ -7527,7 +7591,7 @@
         <v>is_udt_dependent NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="92.4">
+    <row r="60" spans="1:5" ht="79.2">
       <c r="A60" s="6" t="s">
         <v>307</v>
       </c>
@@ -7546,7 +7610,7 @@
         <v>result_cast_from_data_type NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="92.4">
+    <row r="61" spans="1:5" ht="79.2">
       <c r="A61" s="6" t="s">
         <v>308</v>
       </c>
@@ -7565,7 +7629,7 @@
         <v>result_cast_as_locator NVARCHAR(10) NULL,</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="92.4">
+    <row r="62" spans="1:5" ht="79.2">
       <c r="A62" s="6" t="s">
         <v>309</v>
       </c>
@@ -7584,7 +7648,7 @@
         <v>result_cast_char_max_length INT NULL,</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="92.4">
+    <row r="63" spans="1:5" ht="79.2">
       <c r="A63" s="6" t="s">
         <v>310</v>
       </c>
@@ -7603,7 +7667,7 @@
         <v>result_cast_char_octet_length NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="92.4">
+    <row r="64" spans="1:5" ht="79.2">
       <c r="A64" s="6" t="s">
         <v>311</v>
       </c>
@@ -7622,7 +7686,7 @@
         <v>result_cast_char_set_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="92.4">
+    <row r="65" spans="1:5" ht="79.2">
       <c r="A65" s="6" t="s">
         <v>312</v>
       </c>
@@ -7641,7 +7705,7 @@
         <v>result_cast_char_set_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="92.4">
+    <row r="66" spans="1:5" ht="79.2">
       <c r="A66" s="6" t="s">
         <v>313</v>
       </c>
@@ -7660,7 +7724,7 @@
         <v>result_cast_char_set_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="92.4">
+    <row r="67" spans="1:5" ht="79.2">
       <c r="A67" s="6" t="s">
         <v>314</v>
       </c>
@@ -7679,7 +7743,7 @@
         <v>result_cast_collation_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="92.4">
+    <row r="68" spans="1:5" ht="79.2">
       <c r="A68" s="6" t="s">
         <v>315</v>
       </c>
@@ -7698,7 +7762,7 @@
         <v>result_cast_collation_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="92.4">
+    <row r="69" spans="1:5" ht="79.2">
       <c r="A69" s="6" t="s">
         <v>316</v>
       </c>
@@ -7717,7 +7781,7 @@
         <v>result_cast_collation_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="92.4">
+    <row r="70" spans="1:5" ht="79.2">
       <c r="A70" s="6" t="s">
         <v>317</v>
       </c>
@@ -7736,7 +7800,7 @@
         <v>result_cast_numeric_precision INT NULL,</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="92.4">
+    <row r="71" spans="1:5" ht="79.2">
       <c r="A71" s="6" t="s">
         <v>318</v>
       </c>
@@ -7755,7 +7819,7 @@
         <v>result_cast_numeric_precision_radix INT NULL,</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="92.4">
+    <row r="72" spans="1:5" ht="79.2">
       <c r="A72" s="6" t="s">
         <v>319</v>
       </c>
@@ -7774,7 +7838,7 @@
         <v>result_cast_numeric_scale INT NULL,</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="92.4">
+    <row r="73" spans="1:5" ht="79.2">
       <c r="A73" s="6" t="s">
         <v>320</v>
       </c>
@@ -7793,7 +7857,7 @@
         <v>result_cast_datetime_precision NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="92.4">
+    <row r="74" spans="1:5" ht="79.2">
       <c r="A74" s="6" t="s">
         <v>321</v>
       </c>
@@ -7812,7 +7876,7 @@
         <v>result_cast_interval_type NVARCHAR(255) NULL,</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="92.4">
+    <row r="75" spans="1:5" ht="79.2">
       <c r="A75" s="6" t="s">
         <v>322</v>
       </c>
@@ -7831,7 +7895,7 @@
         <v>result_cast_interval_precision INT NULL,</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="92.4">
+    <row r="76" spans="1:5" ht="79.2">
       <c r="A76" s="6" t="s">
         <v>323</v>
       </c>
@@ -7850,7 +7914,7 @@
         <v>result_cast_type_udt_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="92.4">
+    <row r="77" spans="1:5" ht="79.2">
       <c r="A77" s="6" t="s">
         <v>324</v>
       </c>
@@ -7869,7 +7933,7 @@
         <v>result_cast_type_udt_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="92.4">
+    <row r="78" spans="1:5" ht="79.2">
       <c r="A78" s="6" t="s">
         <v>325</v>
       </c>
@@ -7888,7 +7952,7 @@
         <v>result_cast_type_udt_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="92.4">
+    <row r="79" spans="1:5" ht="79.2">
       <c r="A79" s="6" t="s">
         <v>326</v>
       </c>
@@ -7907,7 +7971,7 @@
         <v>result_cast_scope_catalog SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="92.4">
+    <row r="80" spans="1:5" ht="79.2">
       <c r="A80" s="6" t="s">
         <v>327</v>
       </c>
@@ -7926,7 +7990,7 @@
         <v>result_cast_scope_schema SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="92.4">
+    <row r="81" spans="1:5" ht="79.2">
       <c r="A81" s="6" t="s">
         <v>328</v>
       </c>
@@ -7945,7 +8009,7 @@
         <v>result_cast_scope_name SYSNAME NULL,</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="92.4">
+    <row r="82" spans="1:5" ht="79.2">
       <c r="A82" s="6" t="s">
         <v>329</v>
       </c>
@@ -7964,7 +8028,7 @@
         <v>result_cast_maximum_cardinality INT NULL,</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="93" thickBot="1">
+    <row r="83" spans="1:5" ht="79.8" thickBot="1">
       <c r="A83" s="9" t="s">
         <v>330</v>
       </c>
@@ -7981,6 +8045,770 @@
       <c r="E83" t="str">
         <f t="shared" si="1"/>
         <v>result_cast_dtd_identifier SYSNAME NULL,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B267678D-EB70-4824-8F41-F126481E9617}">
+  <dimension ref="B1:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>351</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>350</v>
+      </c>
+      <c r="D29" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" t="s">
+        <v>351</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" t="s">
+        <v>347</v>
+      </c>
+      <c r="E32" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" t="s">
+        <v>351</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
+      <c r="D35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" t="s">
+        <v>351</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>351</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" t="s">
+        <v>350</v>
+      </c>
+      <c r="D38" t="s">
+        <v>348</v>
+      </c>
+      <c r="E38" t="s">
+        <v>351</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D39" t="s">
+        <v>349</v>
+      </c>
+      <c r="E39" t="s">
+        <v>351</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" t="s">
+        <v>351</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" t="s">
+        <v>351</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>350</v>
+      </c>
+      <c r="D42" t="s">
+        <v>352</v>
+      </c>
+      <c r="E42" t="s">
+        <v>351</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D43" t="s">
+        <v>352</v>
+      </c>
+      <c r="E43" t="s">
+        <v>351</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44" t="s">
+        <v>350</v>
+      </c>
+      <c r="D44" t="s">
+        <v>331</v>
+      </c>
+      <c r="E44" t="s">
+        <v>351</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
